--- a/tasks/finalpool/music-analysis/initial_workspace/music_analysis_result.xlsx
+++ b/tasks/finalpool/music-analysis/initial_workspace/music_analysis_result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Detailed Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="19xx" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
